--- a/TempProjects/TrainQA/InOut.xlsx
+++ b/TempProjects/TrainQA/InOut.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DTL\TempProjects\TrainQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oren\Desktop\לימודים\Git\DTL\TempProjects\TrainQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BD533-A1AE-4E7B-97CC-E8DF5FC60626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="In" sheetId="2" r:id="rId1"/>
@@ -18,12 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Out!$A$1:$E$2179</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
   <si>
     <t>Position</t>
   </si>
@@ -42,11 +54,341 @@
   <si>
     <t>from/to</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1,1,0</t>
+  </si>
+  <si>
+    <t>1,2,0</t>
+  </si>
+  <si>
+    <t>1,3,0</t>
+  </si>
+  <si>
+    <t>1,4,0</t>
+  </si>
+  <si>
+    <t>1,5,0</t>
+  </si>
+  <si>
+    <t>1,6,0</t>
+  </si>
+  <si>
+    <t>1,7,0</t>
+  </si>
+  <si>
+    <t>1,8,0</t>
+  </si>
+  <si>
+    <t>1,9,0</t>
+  </si>
+  <si>
+    <t>2,1,0</t>
+  </si>
+  <si>
+    <t>2,2,0</t>
+  </si>
+  <si>
+    <t>2,3,0</t>
+  </si>
+  <si>
+    <t>2,4,0</t>
+  </si>
+  <si>
+    <t>2,5,0</t>
+  </si>
+  <si>
+    <t>2,6,0</t>
+  </si>
+  <si>
+    <t>2,7,0</t>
+  </si>
+  <si>
+    <t>2,8,0</t>
+  </si>
+  <si>
+    <t>2,9,0</t>
+  </si>
+  <si>
+    <t>3,1,0</t>
+  </si>
+  <si>
+    <t>3,2,0</t>
+  </si>
+  <si>
+    <t>3,3,0</t>
+  </si>
+  <si>
+    <t>3,4,0</t>
+  </si>
+  <si>
+    <t>3,5,0</t>
+  </si>
+  <si>
+    <t>3,6,0</t>
+  </si>
+  <si>
+    <t>3,7,0</t>
+  </si>
+  <si>
+    <t>3,8,0</t>
+  </si>
+  <si>
+    <t>3,9,0</t>
+  </si>
+  <si>
+    <t>4,1,0</t>
+  </si>
+  <si>
+    <t>4,2,0</t>
+  </si>
+  <si>
+    <t>4,3,0</t>
+  </si>
+  <si>
+    <t>4,4,0</t>
+  </si>
+  <si>
+    <t>4,5,0</t>
+  </si>
+  <si>
+    <t>4,6,0</t>
+  </si>
+  <si>
+    <t>4,7,0</t>
+  </si>
+  <si>
+    <t>4,8,0</t>
+  </si>
+  <si>
+    <t>4,9,0</t>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>5,2,0</t>
+  </si>
+  <si>
+    <t>5,3,0</t>
+  </si>
+  <si>
+    <t>5,4,0</t>
+  </si>
+  <si>
+    <t>5,5,0</t>
+  </si>
+  <si>
+    <t>5,6,0</t>
+  </si>
+  <si>
+    <t>5,7,0</t>
+  </si>
+  <si>
+    <t>5,8,0</t>
+  </si>
+  <si>
+    <t>5,9,0</t>
+  </si>
+  <si>
+    <t>6,1,0</t>
+  </si>
+  <si>
+    <t>6,2,0</t>
+  </si>
+  <si>
+    <t>6,3,0</t>
+  </si>
+  <si>
+    <t>6,4,0</t>
+  </si>
+  <si>
+    <t>6,5,0</t>
+  </si>
+  <si>
+    <t>6,6,0</t>
+  </si>
+  <si>
+    <t>6,7,0</t>
+  </si>
+  <si>
+    <t>6,8,0</t>
+  </si>
+  <si>
+    <t>6,9,0</t>
+  </si>
+  <si>
+    <t>7,1,0</t>
+  </si>
+  <si>
+    <t>7,2,0</t>
+  </si>
+  <si>
+    <t>7,3,0</t>
+  </si>
+  <si>
+    <t>7,4,0</t>
+  </si>
+  <si>
+    <t>7,5,0</t>
+  </si>
+  <si>
+    <t>7,6,0</t>
+  </si>
+  <si>
+    <t>7,7,0</t>
+  </si>
+  <si>
+    <t>7,8,0</t>
+  </si>
+  <si>
+    <t>7,9,0</t>
+  </si>
+  <si>
+    <t>8,1,0</t>
+  </si>
+  <si>
+    <t>8,2,0</t>
+  </si>
+  <si>
+    <t>8,3,0</t>
+  </si>
+  <si>
+    <t>8,4,0</t>
+  </si>
+  <si>
+    <t>8,5,0</t>
+  </si>
+  <si>
+    <t>8,6,0</t>
+  </si>
+  <si>
+    <t>8,7,0</t>
+  </si>
+  <si>
+    <t>8,8,0</t>
+  </si>
+  <si>
+    <t>8,9,0</t>
+  </si>
+  <si>
+    <t>9,1,0</t>
+  </si>
+  <si>
+    <t>9,2,0</t>
+  </si>
+  <si>
+    <t>9,3,0</t>
+  </si>
+  <si>
+    <t>9,4,0</t>
+  </si>
+  <si>
+    <t>9,5,0</t>
+  </si>
+  <si>
+    <t>9,6,0</t>
+  </si>
+  <si>
+    <t>9,7,0</t>
+  </si>
+  <si>
+    <t>9,8,0</t>
+  </si>
+  <si>
+    <t>9,9,0</t>
+  </si>
+  <si>
+    <t>1,10,0</t>
+  </si>
+  <si>
+    <t>2,10,0</t>
+  </si>
+  <si>
+    <t>3,4,1</t>
+  </si>
+  <si>
+    <t>3,10,0</t>
+  </si>
+  <si>
+    <t>4,3,0.333333333333333</t>
+  </si>
+  <si>
+    <t>4,5,0.666666666666667</t>
+  </si>
+  <si>
+    <t>4,10,0</t>
+  </si>
+  <si>
+    <t>5,4,0.4</t>
+  </si>
+  <si>
+    <t>5,6,0.6</t>
+  </si>
+  <si>
+    <t>5,10,0</t>
+  </si>
+  <si>
+    <t>6,5,0.4</t>
+  </si>
+  <si>
+    <t>6,7,0.6</t>
+  </si>
+  <si>
+    <t>6,10,0</t>
+  </si>
+  <si>
+    <t>7,6,0.5</t>
+  </si>
+  <si>
+    <t>7,8,0.5</t>
+  </si>
+  <si>
+    <t>7,10,0</t>
+  </si>
+  <si>
+    <t>8,7,0.5</t>
+  </si>
+  <si>
+    <t>8,9,0.5</t>
+  </si>
+  <si>
+    <t>8,10,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,10,0,-9.5</t>
+  </si>
+  <si>
+    <t>2,-1,0,10,0,-8.5</t>
+  </si>
+  <si>
+    <t>3,1,10,0,6.5,-3.5</t>
+  </si>
+  <si>
+    <t>4,1,10,0,16.5,-4.5</t>
+  </si>
+  <si>
+    <t>5,1,10,0,22.5,-5.5</t>
+  </si>
+  <si>
+    <t>6,1,10,0,17.5,-6.5</t>
+  </si>
+  <si>
+    <t>7,1,10,0,10,-7.5</t>
+  </si>
+  <si>
+    <t>8,1,10,0,3,-8.5</t>
+  </si>
+  <si>
+    <t>9,1,10,0,0.5,-9.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,19 +1245,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="24" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>5</v>
       </c>
+      <c r="C1" s="2">
+        <v>5</v>
+      </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
@@ -952,38 +1300,83 @@
       <c r="P1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6</v>
       </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>SUM(F2:P2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>7</v>
       </c>
+      <c r="C3" s="2">
+        <v>7</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="0">SUM(F3:P3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6</v>
       </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5">
         <v>4</v>
       </c>
@@ -993,11 +1386,24 @@
       <c r="K5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
       <c r="E6">
         <v>5</v>
       </c>
@@ -1007,11 +1413,24 @@
       <c r="L6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
       <c r="E7">
         <v>6</v>
       </c>
@@ -1021,11 +1440,24 @@
       <c r="M7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
       <c r="E8">
         <v>7</v>
       </c>
@@ -1035,11 +1467,24 @@
       <c r="N8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
       <c r="E9">
         <v>8</v>
       </c>
@@ -1049,79 +1494,984 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="U14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>IF($R2=0,0,F2/$R2)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:P15" si="1">IF($R2=0,0,G2/$R2)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:P16" si="2">IF($R3=0,0,F3/$R3)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:P17" si="3">IF($R4=0,0,F4/$R4)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:P18" si="4">IF($R5=0,0,F5/$R5)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:P19" si="5">IF($R6=0,0,F6/$R6)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:P20" si="6">IF($R7=0,0,F7/$R7)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:P21" si="7">IF($R8=0,0,F8/$R8)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:P22" si="8">IF($R9=0,0,F9/$R9)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:P23" si="9">IF($R10=0,0,F10/$R10)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:P24" si="10">IF($R11=0,0,F11/$R11)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U82" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1130,22 +2480,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E2179"/>
+  <dimension ref="A1:K2179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="585" activePane="bottomLeft"/>
       <selection sqref="A1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="E2188" sqref="E2188"/>
+      <selection pane="bottomLeft" activeCell="D2188" sqref="D2188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +2513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1178,8 +2529,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1195,8 +2549,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1212,8 +2569,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1229,8 +2589,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1246,8 +2609,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1263,8 +2629,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1280,8 +2649,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1297,8 +2669,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1314,8 +2689,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1331,8 +2709,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1348,8 +2729,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1365,8 +2749,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1382,8 +2769,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1399,8 +2789,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1416,8 +2809,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1433,8 +2829,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1450,8 +2849,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1467,8 +2869,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1484,8 +2889,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1501,8 +2909,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1518,8 +2929,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1535,8 +2949,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1552,8 +2969,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1569,8 +2989,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1586,8 +3009,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1603,8 +3029,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1620,8 +3049,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1637,8 +3069,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1654,8 +3089,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1671,8 +3109,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1688,8 +3129,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1705,8 +3149,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1722,8 +3169,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1739,8 +3189,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1756,8 +3209,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1773,8 +3229,11 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1790,8 +3249,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1807,8 +3269,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1824,8 +3289,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1841,8 +3309,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1858,8 +3329,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1875,8 +3349,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1892,8 +3369,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1909,8 +3389,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1926,8 +3409,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1943,8 +3429,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1960,8 +3449,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1977,8 +3469,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1994,8 +3489,11 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2011,8 +3509,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2028,8 +3529,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2045,8 +3549,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2062,8 +3569,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2079,8 +3589,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2096,8 +3609,11 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2113,8 +3629,11 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2130,8 +3649,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2147,8 +3669,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2164,8 +3689,11 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2181,8 +3709,11 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2198,8 +3729,11 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2215,8 +3749,11 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2232,8 +3769,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2249,8 +3789,11 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2266,8 +3809,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2283,8 +3829,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2300,8 +3849,11 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2317,8 +3869,11 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2334,8 +3889,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2351,8 +3909,11 @@
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2368,8 +3929,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2385,8 +3949,11 @@
       <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2402,8 +3969,11 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2419,8 +3989,11 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2436,8 +4009,11 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2453,8 +4029,11 @@
       <c r="E77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2470,8 +4049,11 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2487,8 +4069,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2504,8 +4089,11 @@
       <c r="E80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2521,8 +4109,11 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2539,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2556,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2573,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2590,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2607,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2624,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2641,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2658,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2675,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2692,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2709,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2726,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2743,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2760,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -26747,7 +28338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1507" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1507">
         <v>7</v>
       </c>
@@ -38001,7 +39592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2169">
         <v>9</v>
       </c>
@@ -38018,7 +39609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2170">
         <v>9</v>
       </c>
@@ -38035,7 +39626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2171">
         <v>9</v>
       </c>
@@ -38052,7 +39643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2172">
         <v>9</v>
       </c>
@@ -38069,7 +39660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2173">
         <v>9</v>
       </c>
@@ -38086,7 +39677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2174">
         <v>9</v>
       </c>
@@ -38103,7 +39694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2175">
         <v>9</v>
       </c>
@@ -38120,7 +39711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2176">
         <v>9</v>
       </c>
@@ -38137,7 +39728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2177">
         <v>9</v>
       </c>
@@ -38189,15 +39780,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2179">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:E2179" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="-1"/>
+        <filter val="9"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="5"/>
+        <filter val="0.5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TempProjects/TrainQA/InOut.xlsx
+++ b/TempProjects/TrainQA/InOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oren\Desktop\לימודים\Git\DTL\TempProjects\TrainQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BD533-A1AE-4E7B-97CC-E8DF5FC60626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861D5FFE-30A9-4C0C-AD83-7073573D9D41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
   <si>
     <t>Position</t>
   </si>
@@ -367,22 +367,49 @@
     <t>3,1,10,0,6.5,-3.5</t>
   </si>
   <si>
-    <t>4,1,10,0,16.5,-4.5</t>
+    <t>9,1,10,0,0.5,-9.5</t>
   </si>
   <si>
-    <t>5,1,10,0,22.5,-5.5</t>
+    <t>4,1,8,0,7,-4.5</t>
   </si>
   <si>
-    <t>6,1,10,0,17.5,-6.5</t>
+    <t>5,1,8,0,5,-5.5</t>
   </si>
   <si>
-    <t>7,1,10,0,10,-7.5</t>
+    <t>6,1,10,0,3.5,-6.5</t>
   </si>
   <si>
-    <t>8,1,10,0,3,-8.5</t>
+    <t>7,1,10,0,2.5,-7.5</t>
   </si>
   <si>
-    <t>9,1,10,0,0.5,-9.5</t>
+    <t>8,-1,4,9,2,-1.5</t>
+  </si>
+  <si>
+    <t>1,-1,0,10,0.5,-9.5</t>
+  </si>
+  <si>
+    <t>2,-1,0,10,1.5,-8.5</t>
+  </si>
+  <si>
+    <t>3,1,8,0,4.5,-3.5</t>
+  </si>
+  <si>
+    <t>4,-1,0,10,3.5,-6.5</t>
+  </si>
+  <si>
+    <t>5,-1,0,10,4.5,-5.5</t>
+  </si>
+  <si>
+    <t>6,-1,3,10,6,-4.5</t>
+  </si>
+  <si>
+    <t>7,-1,3,10,8,-3.5</t>
+  </si>
+  <si>
+    <t>8,-1,0,10,7.5,-2.5</t>
+  </si>
+  <si>
+    <t>9,1,0,0,0,-9.5</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="X5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1421,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="X6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1448,7 +1475,7 @@
         <v>12</v>
       </c>
       <c r="X7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1475,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1502,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1526,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1568,6 +1595,9 @@
       <c r="U13" t="s">
         <v>17</v>
       </c>
+      <c r="X13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1615,6 +1645,9 @@
       <c r="U14" t="s">
         <v>18</v>
       </c>
+      <c r="X14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1673,6 +1706,9 @@
       <c r="U15" t="s">
         <v>19</v>
       </c>
+      <c r="X15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1731,8 +1767,11 @@
       <c r="U16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1789,8 +1828,11 @@
       <c r="U17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1847,8 +1889,11 @@
       <c r="U18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -1905,8 +1950,11 @@
       <c r="U19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1963,8 +2011,11 @@
       <c r="U20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -2021,8 +2072,11 @@
       <c r="U21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -2080,7 +2134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E23">
         <v>9</v>
       </c>
@@ -2132,7 +2186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>10</v>
       </c>
@@ -2184,202 +2238,228 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f xml:space="preserve"> 0.4 * 5 +0.6 * 2.5</f>
+        <v>3.5</v>
+      </c>
       <c r="U27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
       <c r="U32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
       <c r="U33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
       <c r="U34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
       <c r="U35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
       <c r="U36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
       <c r="U37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
       <c r="U38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
       <c r="U39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
       <c r="U40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
       <c r="U41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
       <c r="U42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
       <c r="U43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
       <c r="U44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
       <c r="U45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
       <c r="U46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
       <c r="U47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
       <c r="U48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
       <c r="U49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
       <c r="U50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
       <c r="U51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
       <c r="U52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
       <c r="U53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U58" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U61" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U64" t="s">
         <v>63</v>
       </c>
@@ -2487,12 +2567,11 @@
     <sheetView workbookViewId="0">
       <pane ySplit="585" activePane="bottomLeft"/>
       <selection sqref="A1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="D2188" sqref="D2188"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15194,7 +15273,7 @@
         <v>5</v>
       </c>
       <c r="E733">
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15211,7 +15290,7 @@
         <v>6</v>
       </c>
       <c r="E734">
-        <v>-7.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15228,7 +15307,7 @@
         <v>7</v>
       </c>
       <c r="E735">
-        <v>-10.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15245,7 +15324,7 @@
         <v>8</v>
       </c>
       <c r="E736">
-        <v>-13.5</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15262,7 +15341,7 @@
         <v>9</v>
       </c>
       <c r="E737">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15279,7 +15358,7 @@
         <v>10</v>
       </c>
       <c r="E738">
-        <v>-19.5</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15381,7 +15460,7 @@
         <v>5</v>
       </c>
       <c r="E744">
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15398,7 +15477,7 @@
         <v>6</v>
       </c>
       <c r="E745">
-        <v>-7.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15415,7 +15494,7 @@
         <v>7</v>
       </c>
       <c r="E746">
-        <v>-10.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15432,7 +15511,7 @@
         <v>8</v>
       </c>
       <c r="E747">
-        <v>-13.5</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15449,7 +15528,7 @@
         <v>9</v>
       </c>
       <c r="E748">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15466,7 +15545,7 @@
         <v>10</v>
       </c>
       <c r="E749">
-        <v>-19.5</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15568,7 +15647,7 @@
         <v>5</v>
       </c>
       <c r="E755">
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15585,7 +15664,7 @@
         <v>6</v>
       </c>
       <c r="E756">
-        <v>-7.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15602,7 +15681,7 @@
         <v>7</v>
       </c>
       <c r="E757">
-        <v>-10.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15619,7 +15698,7 @@
         <v>8</v>
       </c>
       <c r="E758">
-        <v>-13.5</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15636,7 +15715,7 @@
         <v>9</v>
       </c>
       <c r="E759">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15653,7 +15732,7 @@
         <v>10</v>
       </c>
       <c r="E760">
-        <v>-19.5</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15755,7 +15834,7 @@
         <v>5</v>
       </c>
       <c r="E766">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15772,7 +15851,7 @@
         <v>6</v>
       </c>
       <c r="E767">
-        <v>-4.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15789,7 +15868,7 @@
         <v>7</v>
       </c>
       <c r="E768">
-        <v>-6.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15806,7 +15885,7 @@
         <v>8</v>
       </c>
       <c r="E769">
-        <v>-8.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15823,7 +15902,7 @@
         <v>9</v>
       </c>
       <c r="E770">
-        <v>-10.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15840,7 +15919,7 @@
         <v>10</v>
       </c>
       <c r="E771">
-        <v>-12.5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18101,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="E904">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18118,7 +18197,7 @@
         <v>1</v>
       </c>
       <c r="E905">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18135,7 +18214,7 @@
         <v>2</v>
       </c>
       <c r="E906">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18152,7 +18231,7 @@
         <v>3</v>
       </c>
       <c r="E907">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18288,7 +18367,7 @@
         <v>0</v>
       </c>
       <c r="E915">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="916" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18305,7 +18384,7 @@
         <v>1</v>
       </c>
       <c r="E916">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="917" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18322,7 +18401,7 @@
         <v>2</v>
       </c>
       <c r="E917">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18339,7 +18418,7 @@
         <v>3</v>
       </c>
       <c r="E918">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18475,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="E926">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="927" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18492,7 +18571,7 @@
         <v>1</v>
       </c>
       <c r="E927">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18509,7 +18588,7 @@
         <v>2</v>
       </c>
       <c r="E928">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18526,7 +18605,7 @@
         <v>3</v>
       </c>
       <c r="E929">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18662,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="E937">
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18679,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="E938">
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="939" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18696,7 +18775,7 @@
         <v>2</v>
       </c>
       <c r="E939">
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18713,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="E940">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18849,7 +18928,7 @@
         <v>0</v>
       </c>
       <c r="E948">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18866,7 +18945,7 @@
         <v>1</v>
       </c>
       <c r="E949">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="950" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18883,7 +18962,7 @@
         <v>2</v>
       </c>
       <c r="E950">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="951" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18900,7 +18979,7 @@
         <v>3</v>
       </c>
       <c r="E951">
-        <v>7.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19036,7 +19115,7 @@
         <v>0</v>
       </c>
       <c r="E959">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19053,7 +19132,7 @@
         <v>1</v>
       </c>
       <c r="E960">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19070,7 +19149,7 @@
         <v>2</v>
       </c>
       <c r="E961">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="962" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19087,7 +19166,7 @@
         <v>3</v>
       </c>
       <c r="E962">
-        <v>9.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="963" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19325,7 +19404,7 @@
         <v>6</v>
       </c>
       <c r="E976">
-        <v>-7.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="977" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19342,7 +19421,7 @@
         <v>7</v>
       </c>
       <c r="E977">
-        <v>-12.5</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="978" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19359,7 +19438,7 @@
         <v>8</v>
       </c>
       <c r="E978">
-        <v>-17.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="979" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19376,7 +19455,7 @@
         <v>9</v>
       </c>
       <c r="E979">
-        <v>-22.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="980" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19393,7 +19472,7 @@
         <v>10</v>
       </c>
       <c r="E980">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="981" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19512,7 +19591,7 @@
         <v>6</v>
       </c>
       <c r="E987">
-        <v>-7.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="988" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19529,7 +19608,7 @@
         <v>7</v>
       </c>
       <c r="E988">
-        <v>-12.5</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19546,7 +19625,7 @@
         <v>8</v>
       </c>
       <c r="E989">
-        <v>-17.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19563,7 +19642,7 @@
         <v>9</v>
       </c>
       <c r="E990">
-        <v>-22.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19580,7 +19659,7 @@
         <v>10</v>
       </c>
       <c r="E991">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="992" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19699,7 +19778,7 @@
         <v>6</v>
       </c>
       <c r="E998">
-        <v>-7.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="999" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19716,7 +19795,7 @@
         <v>7</v>
       </c>
       <c r="E999">
-        <v>-12.5</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="1000" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19733,7 +19812,7 @@
         <v>8</v>
       </c>
       <c r="E1000">
-        <v>-17.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="1001" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19750,7 +19829,7 @@
         <v>9</v>
       </c>
       <c r="E1001">
-        <v>-22.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1002" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19767,7 +19846,7 @@
         <v>10</v>
       </c>
       <c r="E1002">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="1003" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19886,7 +19965,7 @@
         <v>6</v>
       </c>
       <c r="E1009">
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1010" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19903,7 +19982,7 @@
         <v>7</v>
       </c>
       <c r="E1010">
-        <v>-8.5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="1011" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19920,7 +19999,7 @@
         <v>8</v>
       </c>
       <c r="E1011">
-        <v>-7.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="1012" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19937,7 +20016,7 @@
         <v>9</v>
       </c>
       <c r="E1012">
-        <v>-10.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1013" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -19954,7 +20033,7 @@
         <v>10</v>
       </c>
       <c r="E1013">
-        <v>-13.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="1014" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -20073,7 +20152,7 @@
         <v>6</v>
       </c>
       <c r="E1020">
-        <v>-3.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1021" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -20090,7 +20169,7 @@
         <v>7</v>
       </c>
       <c r="E1021">
-        <v>-6.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="1022" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -20107,7 +20186,7 @@
         <v>8</v>
       </c>
       <c r="E1022">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1023" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -20124,7 +20203,7 @@
         <v>9</v>
       </c>
       <c r="E1023">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -20141,7 +20220,7 @@
         <v>10</v>
       </c>
       <c r="E1024">
-        <v>-3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22402,7 +22481,7 @@
         <v>0</v>
       </c>
       <c r="E1157">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22419,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="E1158">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22436,7 +22515,7 @@
         <v>2</v>
       </c>
       <c r="E1159">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22453,7 +22532,7 @@
         <v>3</v>
       </c>
       <c r="E1160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22470,7 +22549,7 @@
         <v>4</v>
       </c>
       <c r="E1161">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22589,7 +22668,7 @@
         <v>0</v>
       </c>
       <c r="E1168">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22606,7 +22685,7 @@
         <v>1</v>
       </c>
       <c r="E1169">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22623,7 +22702,7 @@
         <v>2</v>
       </c>
       <c r="E1170">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22640,7 +22719,7 @@
         <v>3</v>
       </c>
       <c r="E1171">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22657,7 +22736,7 @@
         <v>4</v>
       </c>
       <c r="E1172">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22776,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="E1179">
-        <v>12.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22793,7 +22872,7 @@
         <v>1</v>
       </c>
       <c r="E1180">
-        <v>12.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22810,7 +22889,7 @@
         <v>2</v>
       </c>
       <c r="E1181">
-        <v>12.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22844,7 +22923,7 @@
         <v>4</v>
       </c>
       <c r="E1183">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22963,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="E1190">
-        <v>17.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22980,7 +23059,7 @@
         <v>1</v>
       </c>
       <c r="E1191">
-        <v>17.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -22997,7 +23076,7 @@
         <v>2</v>
       </c>
       <c r="E1192">
-        <v>17.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23014,7 +23093,7 @@
         <v>3</v>
       </c>
       <c r="E1193">
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23031,7 +23110,7 @@
         <v>4</v>
       </c>
       <c r="E1194">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23150,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="E1201">
-        <v>22.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23167,7 +23246,7 @@
         <v>1</v>
       </c>
       <c r="E1202">
-        <v>22.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23184,7 +23263,7 @@
         <v>2</v>
       </c>
       <c r="E1203">
-        <v>22.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23201,7 +23280,7 @@
         <v>3</v>
       </c>
       <c r="E1204">
-        <v>8.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23218,7 +23297,7 @@
         <v>4</v>
       </c>
       <c r="E1205">
-        <v>-1.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23456,7 +23535,7 @@
         <v>7</v>
       </c>
       <c r="E1219">
-        <v>-7.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23473,7 +23552,7 @@
         <v>8</v>
       </c>
       <c r="E1220">
-        <v>-12.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="1221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23490,7 +23569,7 @@
         <v>9</v>
       </c>
       <c r="E1221">
-        <v>-17.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23507,7 +23586,7 @@
         <v>10</v>
       </c>
       <c r="E1222">
-        <v>-22.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23643,7 +23722,7 @@
         <v>7</v>
       </c>
       <c r="E1230">
-        <v>-7.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23660,7 +23739,7 @@
         <v>8</v>
       </c>
       <c r="E1231">
-        <v>-12.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="1232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23677,7 +23756,7 @@
         <v>9</v>
       </c>
       <c r="E1232">
-        <v>-17.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23694,7 +23773,7 @@
         <v>10</v>
       </c>
       <c r="E1233">
-        <v>-22.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23830,7 +23909,7 @@
         <v>7</v>
       </c>
       <c r="E1241">
-        <v>-7.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23847,7 +23926,7 @@
         <v>8</v>
       </c>
       <c r="E1242">
-        <v>-12.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="1243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23864,7 +23943,7 @@
         <v>9</v>
       </c>
       <c r="E1243">
-        <v>-17.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23881,7 +23960,7 @@
         <v>10</v>
       </c>
       <c r="E1244">
-        <v>-22.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24017,7 +24096,7 @@
         <v>7</v>
       </c>
       <c r="E1252">
-        <v>-3.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24051,7 +24130,7 @@
         <v>9</v>
       </c>
       <c r="E1254">
-        <v>-5.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24068,7 +24147,7 @@
         <v>10</v>
       </c>
       <c r="E1255">
-        <v>-8.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24204,7 +24283,7 @@
         <v>7</v>
       </c>
       <c r="E1263">
-        <v>-1.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24221,7 +24300,7 @@
         <v>8</v>
       </c>
       <c r="E1264">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24238,7 +24317,7 @@
         <v>9</v>
       </c>
       <c r="E1265">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24255,7 +24334,7 @@
         <v>10</v>
       </c>
       <c r="E1266">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24391,7 +24470,7 @@
         <v>7</v>
       </c>
       <c r="E1274">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="1275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24408,7 +24487,7 @@
         <v>8</v>
       </c>
       <c r="E1275">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="1276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24425,7 +24504,7 @@
         <v>9</v>
       </c>
       <c r="E1276">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24442,7 +24521,7 @@
         <v>10</v>
       </c>
       <c r="E1277">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -24819,7 +24898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1300">
         <v>6</v>
       </c>
@@ -24836,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1301">
         <v>6</v>
       </c>
@@ -24853,7 +24932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1302">
         <v>6</v>
       </c>
@@ -24870,7 +24949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1303">
         <v>6</v>
       </c>
@@ -24887,7 +24966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1304">
         <v>6</v>
       </c>
@@ -24904,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1305">
         <v>6</v>
       </c>
@@ -24921,7 +25000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1306">
         <v>6</v>
       </c>
@@ -24938,7 +25017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1307">
         <v>6</v>
       </c>
@@ -24955,7 +25034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1308">
         <v>6</v>
       </c>
@@ -24972,7 +25051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1309">
         <v>6</v>
       </c>
@@ -24989,7 +25068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1310">
         <v>6</v>
       </c>
@@ -26703,7 +26782,7 @@
         <v>0</v>
       </c>
       <c r="E1410">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1411" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -26720,7 +26799,7 @@
         <v>1</v>
       </c>
       <c r="E1411">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1412" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -26737,7 +26816,7 @@
         <v>2</v>
       </c>
       <c r="E1412">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1413" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -26754,7 +26833,7 @@
         <v>3</v>
       </c>
       <c r="E1413">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1414" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -26771,7 +26850,7 @@
         <v>4</v>
       </c>
       <c r="E1414">
-        <v>-3.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -26788,7 +26867,7 @@
         <v>5</v>
       </c>
       <c r="E1415">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -26876,7 +26955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1421">
         <v>6</v>
       </c>
@@ -26890,10 +26969,10 @@
         <v>0</v>
       </c>
       <c r="E1421">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1422">
         <v>6</v>
       </c>
@@ -26907,10 +26986,10 @@
         <v>1</v>
       </c>
       <c r="E1422">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1423">
         <v>6</v>
       </c>
@@ -26924,10 +27003,10 @@
         <v>2</v>
       </c>
       <c r="E1423">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1424">
         <v>6</v>
       </c>
@@ -26941,10 +27020,10 @@
         <v>3</v>
       </c>
       <c r="E1424">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1425">
         <v>6</v>
       </c>
@@ -26958,10 +27037,10 @@
         <v>4</v>
       </c>
       <c r="E1425">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1426">
         <v>6</v>
       </c>
@@ -26975,10 +27054,10 @@
         <v>5</v>
       </c>
       <c r="E1426">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1427">
         <v>6</v>
       </c>
@@ -26995,7 +27074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1428" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1428">
         <v>6</v>
       </c>
@@ -27012,7 +27091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1429">
         <v>6</v>
       </c>
@@ -27029,7 +27108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1430">
         <v>6</v>
       </c>
@@ -27046,7 +27125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1431" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1431">
         <v>6</v>
       </c>
@@ -27077,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="E1432">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1433" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27094,7 +27173,7 @@
         <v>1</v>
       </c>
       <c r="E1433">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1434" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27111,7 +27190,7 @@
         <v>2</v>
       </c>
       <c r="E1434">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1435" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27128,7 +27207,7 @@
         <v>3</v>
       </c>
       <c r="E1435">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1436" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27145,7 +27224,7 @@
         <v>4</v>
       </c>
       <c r="E1436">
-        <v>-7.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1437" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27162,7 +27241,7 @@
         <v>5</v>
       </c>
       <c r="E1437">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27264,7 +27343,7 @@
         <v>0</v>
       </c>
       <c r="E1443">
-        <v>17.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27281,7 +27360,7 @@
         <v>1</v>
       </c>
       <c r="E1444">
-        <v>17.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27298,7 +27377,7 @@
         <v>2</v>
       </c>
       <c r="E1445">
-        <v>17.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1446" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27315,7 +27394,7 @@
         <v>3</v>
       </c>
       <c r="E1446">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27332,7 +27411,7 @@
         <v>4</v>
       </c>
       <c r="E1447">
-        <v>-6.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27349,7 +27428,7 @@
         <v>5</v>
       </c>
       <c r="E1448">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27587,7 +27666,7 @@
         <v>8</v>
       </c>
       <c r="E1462">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1463" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27604,7 +27683,7 @@
         <v>9</v>
       </c>
       <c r="E1463">
-        <v>-10</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1464" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27621,7 +27700,7 @@
         <v>10</v>
       </c>
       <c r="E1464">
-        <v>-14</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1465" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27774,7 +27853,7 @@
         <v>8</v>
       </c>
       <c r="E1473">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1474" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27791,7 +27870,7 @@
         <v>9</v>
       </c>
       <c r="E1474">
-        <v>-10</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27808,7 +27887,7 @@
         <v>10</v>
       </c>
       <c r="E1475">
-        <v>-14</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27961,7 +28040,7 @@
         <v>8</v>
       </c>
       <c r="E1484">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27978,7 +28057,7 @@
         <v>9</v>
       </c>
       <c r="E1485">
-        <v>-10</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1486" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -27995,7 +28074,7 @@
         <v>10</v>
       </c>
       <c r="E1486">
-        <v>-14</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1487" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28148,7 +28227,7 @@
         <v>8</v>
       </c>
       <c r="E1495">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28165,7 +28244,7 @@
         <v>9</v>
       </c>
       <c r="E1496">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28182,7 +28261,7 @@
         <v>10</v>
       </c>
       <c r="E1497">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1498" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28335,7 +28414,7 @@
         <v>8</v>
       </c>
       <c r="E1506">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1507" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28352,7 +28431,7 @@
         <v>9</v>
       </c>
       <c r="E1507">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28369,7 +28448,7 @@
         <v>10</v>
       </c>
       <c r="E1508">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1509" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28522,7 +28601,7 @@
         <v>8</v>
       </c>
       <c r="E1517">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1518" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28539,7 +28618,7 @@
         <v>9</v>
       </c>
       <c r="E1518">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1519" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28556,7 +28635,7 @@
         <v>10</v>
       </c>
       <c r="E1519">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1520" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28709,7 +28788,7 @@
         <v>8</v>
       </c>
       <c r="E1528">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1529" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28726,7 +28805,7 @@
         <v>9</v>
       </c>
       <c r="E1529">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1530" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -28743,7 +28822,7 @@
         <v>10</v>
       </c>
       <c r="E1530">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1531" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31004,7 +31083,7 @@
         <v>0</v>
       </c>
       <c r="E1663">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1664" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31021,7 +31100,7 @@
         <v>1</v>
       </c>
       <c r="E1664">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1665" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31038,7 +31117,7 @@
         <v>2</v>
       </c>
       <c r="E1665">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1666" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31055,7 +31134,7 @@
         <v>3</v>
       </c>
       <c r="E1666">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1667" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31072,7 +31151,7 @@
         <v>4</v>
       </c>
       <c r="E1667">
-        <v>-6</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1668" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31089,7 +31168,7 @@
         <v>5</v>
       </c>
       <c r="E1668">
-        <v>-4</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1669" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31106,7 +31185,7 @@
         <v>6</v>
       </c>
       <c r="E1669">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1670" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31191,7 +31270,7 @@
         <v>0</v>
       </c>
       <c r="E1674">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1675" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31208,7 +31287,7 @@
         <v>1</v>
       </c>
       <c r="E1675">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1676" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31225,7 +31304,7 @@
         <v>2</v>
       </c>
       <c r="E1676">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1677" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31242,7 +31321,7 @@
         <v>3</v>
       </c>
       <c r="E1677">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1678" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31259,7 +31338,7 @@
         <v>4</v>
       </c>
       <c r="E1678">
-        <v>-9</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="1679" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31276,7 +31355,7 @@
         <v>5</v>
       </c>
       <c r="E1679">
-        <v>-6</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="1680" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31293,7 +31372,7 @@
         <v>6</v>
       </c>
       <c r="E1680">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1681" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31378,7 +31457,7 @@
         <v>0</v>
       </c>
       <c r="E1685">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1686" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31395,7 +31474,7 @@
         <v>1</v>
       </c>
       <c r="E1686">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1687" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31412,7 +31491,7 @@
         <v>2</v>
       </c>
       <c r="E1687">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1688" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31429,7 +31508,7 @@
         <v>3</v>
       </c>
       <c r="E1688">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1689" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31446,7 +31525,7 @@
         <v>4</v>
       </c>
       <c r="E1689">
-        <v>-8</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1690" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31463,7 +31542,7 @@
         <v>5</v>
       </c>
       <c r="E1690">
-        <v>-5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1691" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31480,7 +31559,7 @@
         <v>6</v>
       </c>
       <c r="E1691">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1692" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31718,7 +31797,7 @@
         <v>9</v>
       </c>
       <c r="E1705">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1706" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31735,7 +31814,7 @@
         <v>10</v>
       </c>
       <c r="E1706">
-        <v>-5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1707" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31905,7 +31984,7 @@
         <v>9</v>
       </c>
       <c r="E1716">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1717" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -31922,7 +32001,7 @@
         <v>10</v>
       </c>
       <c r="E1717">
-        <v>-5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1718" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -32092,7 +32171,7 @@
         <v>9</v>
       </c>
       <c r="E1727">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1728" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -32109,7 +32188,7 @@
         <v>10</v>
       </c>
       <c r="E1728">
-        <v>-5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1729" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -32279,7 +32358,7 @@
         <v>9</v>
       </c>
       <c r="E1738">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1739" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -32296,7 +32375,7 @@
         <v>10</v>
       </c>
       <c r="E1739">
-        <v>-5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="1740" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -35305,7 +35384,7 @@
         <v>0</v>
       </c>
       <c r="E1916">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1917" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -35322,7 +35401,7 @@
         <v>1</v>
       </c>
       <c r="E1917">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1918" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -35339,7 +35418,7 @@
         <v>2</v>
       </c>
       <c r="E1918">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1919" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -35356,7 +35435,7 @@
         <v>3</v>
       </c>
       <c r="E1919">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1920" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -35492,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="E1927">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1928" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -35509,7 +35588,7 @@
         <v>1</v>
       </c>
       <c r="E1928">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1929" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -35526,7 +35605,7 @@
         <v>2</v>
       </c>
       <c r="E1929">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1930" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -35543,7 +35622,7 @@
         <v>3</v>
       </c>
       <c r="E1930">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1931" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -39592,7 +39671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2169">
         <v>9</v>
       </c>
@@ -39609,7 +39688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2170">
         <v>9</v>
       </c>
@@ -39626,7 +39705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2171">
         <v>9</v>
       </c>
@@ -39643,7 +39722,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2172">
         <v>9</v>
       </c>
@@ -39660,7 +39739,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2173">
         <v>9</v>
       </c>
@@ -39677,7 +39756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2174">
         <v>9</v>
       </c>
@@ -39694,7 +39773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2175">
         <v>9</v>
       </c>
@@ -39711,7 +39790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2176">
         <v>9</v>
       </c>
@@ -39728,7 +39807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2177">
         <v>9</v>
       </c>
@@ -39783,12 +39862,12 @@
   <autoFilter ref="A1:E2179" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="9"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
+    <filterColumn colId="2">
       <filters>
-        <filter val="0.5"/>
+        <filter val="8"/>
       </filters>
     </filterColumn>
   </autoFilter>
